--- a/RUDN/Correlations/deep.Corr_in_PLW.Micronesia.xlsx
+++ b/RUDN/Correlations/deep.Corr_in_PLW.Micronesia.xlsx
@@ -14,15 +14,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:PLW</t>
+  </si>
+  <si>
+    <t>IC.REG.DURS.FE:PLW</t>
+  </si>
   <si>
     <t>IC.REG.DURS.MA:PLW</t>
   </si>
   <si>
+    <t>NY.GDP.MKTP.CD:PLW</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:PLW</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:PLW</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:PLW</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:PLW</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:PLW</t>
+  </si>
+  <si>
+    <t>SH.DTH.IMRT:PLW</t>
+  </si>
+  <si>
+    <t>SH.DTH.MORT:PLW</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:PLW</t>
+  </si>
+  <si>
+    <t>SH.DYN.NMRT:PLW</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:PLW</t>
+  </si>
+  <si>
+    <t>SH.IMM.HIB3:PLW</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:PLW</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:PLW</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:PLW</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:PLW</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:PLW</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZG:PLW</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZS:PLW</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:PLW</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL.IN.ZS:PLW</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:PLW</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:PLW:p-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:PLW:p-value</t>
+  </si>
+  <si>
     <t>IC.REG.DURS.FE:PLW:cor-value</t>
   </si>
   <si>
     <t>IC.REG.DURS.FE:PLW:p-value</t>
+  </si>
+  <si>
+    <t>IC.REG.DURS.MA:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.DURS.MA:PLW:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:PLW:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:PLW:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:PLW:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:PLW:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:PLW:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:PLW:p-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.IMRT:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.IMRT:PLW:p-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.MORT:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.MORT:PLW:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:PLW:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.NMRT:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.NMRT:PLW:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:PLW:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HIB3:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HIB3:PLW:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:PLW:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:PLW:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:PLW:p-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:PLW:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:PLW:p-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZG:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZG:PLW:p-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZS:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZS:PLW:p-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:PLW:p-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:PLW:cor-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:PLW:p-value</t>
   </si>
 </sst>
 </file>
@@ -380,31 +596,1915 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>0.5902037241740812</v>
+      </c>
+      <c r="D2">
+        <v>0.5902037241740812</v>
+      </c>
+      <c r="E2">
+        <v>-0.6966346737179637</v>
+      </c>
+      <c r="F2">
+        <v>-0.3179709141530729</v>
+      </c>
+      <c r="G2">
+        <v>-0.7056479522597224</v>
+      </c>
+      <c r="H2">
+        <v>-0.7027671122920868</v>
+      </c>
+      <c r="I2">
+        <v>-0.7139653082172034</v>
+      </c>
+      <c r="J2">
+        <v>-0.682294095324568</v>
+      </c>
+      <c r="K2">
+        <v>0.6916976382437984</v>
+      </c>
+      <c r="L2">
+        <v>0.5420084736537036</v>
+      </c>
+      <c r="M2">
+        <v>0.6273584815353996</v>
+      </c>
+      <c r="N2">
+        <v>0.6297995200865271</v>
+      </c>
+      <c r="T2">
+        <v>0.6279188297377682</v>
+      </c>
+      <c r="U2">
+        <v>-0.6297195505804601</v>
+      </c>
+      <c r="V2">
+        <v>-0.4860248000890022</v>
+      </c>
+      <c r="W2">
+        <v>0.6378158442942664</v>
+      </c>
+      <c r="X2">
+        <v>0.6359894122345113</v>
+      </c>
+      <c r="Y2">
+        <v>-0.6378158442942664</v>
+      </c>
+      <c r="Z2">
+        <v>-0.6393096603236733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.02628909758489744</v>
+      </c>
+      <c r="D3">
+        <v>0.02628909758489744</v>
+      </c>
+      <c r="E3">
+        <v>0.00563538406901726</v>
+      </c>
+      <c r="F3">
+        <v>0.2679121492779929</v>
+      </c>
+      <c r="G3">
+        <v>0.004806293151630309</v>
+      </c>
+      <c r="H3">
+        <v>0.005060145289584774</v>
+      </c>
+      <c r="I3">
+        <v>0.00412891583609847</v>
+      </c>
+      <c r="J3">
+        <v>0.007179945551877948</v>
+      </c>
+      <c r="K3">
+        <v>0.006134523707709033</v>
+      </c>
+      <c r="L3">
+        <v>0.04526625510936514</v>
+      </c>
+      <c r="M3">
+        <v>0.01632217492891691</v>
+      </c>
+      <c r="N3">
+        <v>0.01578705409105797</v>
+      </c>
+      <c r="T3">
+        <v>0.01619813412507618</v>
+      </c>
+      <c r="U3">
+        <v>0.01580437037729558</v>
+      </c>
+      <c r="V3">
+        <v>0.07805718832463673</v>
+      </c>
+      <c r="W3">
+        <v>0.01412324186022031</v>
+      </c>
+      <c r="X3">
+        <v>0.01448995888911394</v>
+      </c>
+      <c r="Y3">
+        <v>0.01412324186022031</v>
+      </c>
+      <c r="Z3">
+        <v>0.01382861429136931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>0.5902037241740812</v>
+      </c>
+      <c r="D4">
+        <v>0.5902037241740812</v>
+      </c>
+      <c r="E4">
+        <v>-0.6966346737179637</v>
+      </c>
+      <c r="F4">
+        <v>-0.3179709141530729</v>
+      </c>
+      <c r="G4">
+        <v>-0.7056479522597224</v>
+      </c>
+      <c r="H4">
+        <v>-0.7027671122920868</v>
+      </c>
+      <c r="I4">
+        <v>-0.7139653082172034</v>
+      </c>
+      <c r="J4">
+        <v>-0.682294095324568</v>
+      </c>
+      <c r="K4">
+        <v>0.6916976382437984</v>
+      </c>
+      <c r="L4">
+        <v>0.5420084736537036</v>
+      </c>
+      <c r="M4">
+        <v>0.6273584815353996</v>
+      </c>
+      <c r="N4">
+        <v>0.6297995200865271</v>
+      </c>
+      <c r="T4">
+        <v>0.6279188297377682</v>
+      </c>
+      <c r="U4">
+        <v>-0.6297195505804601</v>
+      </c>
+      <c r="V4">
+        <v>-0.4860248000890022</v>
+      </c>
+      <c r="W4">
+        <v>0.6378158442942664</v>
+      </c>
+      <c r="X4">
+        <v>0.6359894122345113</v>
+      </c>
+      <c r="Y4">
+        <v>-0.6378158442942664</v>
+      </c>
+      <c r="Z4">
+        <v>-0.6393096603236733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>0.02628909758489744</v>
+      </c>
+      <c r="D5">
+        <v>0.02628909758489744</v>
+      </c>
+      <c r="E5">
+        <v>0.00563538406901726</v>
+      </c>
+      <c r="F5">
+        <v>0.2679121492779929</v>
+      </c>
+      <c r="G5">
+        <v>0.004806293151630309</v>
+      </c>
+      <c r="H5">
+        <v>0.005060145289584774</v>
+      </c>
+      <c r="I5">
+        <v>0.00412891583609847</v>
+      </c>
+      <c r="J5">
+        <v>0.007179945551877948</v>
+      </c>
+      <c r="K5">
+        <v>0.006134523707709033</v>
+      </c>
+      <c r="L5">
+        <v>0.04526625510936514</v>
+      </c>
+      <c r="M5">
+        <v>0.01632217492891691</v>
+      </c>
+      <c r="N5">
+        <v>0.01578705409105797</v>
+      </c>
+      <c r="T5">
+        <v>0.01619813412507618</v>
+      </c>
+      <c r="U5">
+        <v>0.01580437037729558</v>
+      </c>
+      <c r="V5">
+        <v>0.07805718832463673</v>
+      </c>
+      <c r="W5">
+        <v>0.01412324186022031</v>
+      </c>
+      <c r="X5">
+        <v>0.01448995888911394</v>
+      </c>
+      <c r="Y5">
+        <v>0.01412324186022031</v>
+      </c>
+      <c r="Z5">
+        <v>0.01382861429136931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>-0.1168268115321001</v>
+      </c>
+      <c r="V6">
+        <v>0.1996071313974913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.6908234743913598</v>
+      </c>
+      <c r="V7">
+        <v>0.493871244805688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8">
+        <v>-0.1168268115321001</v>
+      </c>
+      <c r="V8">
+        <v>0.1996071313974913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9">
+        <v>0.6908234743913598</v>
+      </c>
+      <c r="V9">
+        <v>0.493871244805688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>0.3996038608840285</v>
+      </c>
+      <c r="G10">
+        <v>0.9981767034932504</v>
+      </c>
+      <c r="H10">
+        <v>0.9921845830722755</v>
+      </c>
+      <c r="I10">
+        <v>0.9864957539384175</v>
+      </c>
+      <c r="J10">
+        <v>0.9415799462574217</v>
+      </c>
+      <c r="K10">
+        <v>-0.7842254525937707</v>
+      </c>
+      <c r="L10">
+        <v>-0.7267998258323721</v>
+      </c>
+      <c r="M10">
+        <v>-0.8542816532927392</v>
+      </c>
+      <c r="N10">
+        <v>-0.8609369030319596</v>
+      </c>
+      <c r="O10">
+        <v>0.1936657251403758</v>
+      </c>
+      <c r="P10">
+        <v>0.2585644576342822</v>
+      </c>
+      <c r="Q10">
+        <v>0.211311770801027</v>
+      </c>
+      <c r="R10">
+        <v>0.1695229747806622</v>
+      </c>
+      <c r="S10">
+        <v>0.1807001526128593</v>
+      </c>
+      <c r="T10">
+        <v>-0.8551028340267702</v>
+      </c>
+      <c r="U10">
+        <v>0.9200969088930834</v>
+      </c>
+      <c r="V10">
+        <v>0.9000232327252521</v>
+      </c>
+      <c r="W10">
+        <v>-0.8190455942487853</v>
+      </c>
+      <c r="X10">
+        <v>-0.81393803984612</v>
+      </c>
+      <c r="Y10">
+        <v>0.8190455942487853</v>
+      </c>
+      <c r="Z10">
+        <v>0.8679645485443627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11">
+        <v>0.1568984791513236</v>
+      </c>
+      <c r="G11">
+        <v>5.283702692519868e-16</v>
+      </c>
+      <c r="H11">
+        <v>3.235343890840604e-12</v>
+      </c>
+      <c r="I11">
+        <v>8.505760378585185e-11</v>
+      </c>
+      <c r="J11">
+        <v>5.056662427602917e-07</v>
+      </c>
+      <c r="K11">
+        <v>0.000898966130563394</v>
+      </c>
+      <c r="L11">
+        <v>0.003232949397050511</v>
+      </c>
+      <c r="M11">
+        <v>0.0001002199606673984</v>
+      </c>
+      <c r="N11">
+        <v>7.685950719564253e-05</v>
+      </c>
+      <c r="O11">
+        <v>0.5070765907905546</v>
+      </c>
+      <c r="P11">
+        <v>0.3720837490895262</v>
+      </c>
+      <c r="Q11">
+        <v>0.4683337722619596</v>
+      </c>
+      <c r="R11">
+        <v>0.5623334027949584</v>
+      </c>
+      <c r="S11">
+        <v>0.5364405687497686</v>
+      </c>
+      <c r="T11">
+        <v>9.70595417682277e-05</v>
+      </c>
+      <c r="U11">
+        <v>3.157363933502447e-06</v>
+      </c>
+      <c r="V11">
+        <v>1.158712607272058e-05</v>
+      </c>
+      <c r="W11">
+        <v>0.0003390516734615629</v>
+      </c>
+      <c r="X11">
+        <v>0.0003959845386274315</v>
+      </c>
+      <c r="Y11">
+        <v>0.0003390516734615629</v>
+      </c>
+      <c r="Z11">
+        <v>5.721034106933834e-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>-0.4389592132852314</v>
+      </c>
+      <c r="D12">
+        <v>-0.4389592132852314</v>
+      </c>
+      <c r="G12">
+        <v>0.4020123946551346</v>
+      </c>
+      <c r="H12">
+        <v>0.455132342956819</v>
+      </c>
+      <c r="I12">
+        <v>0.4689261535685001</v>
+      </c>
+      <c r="J12">
+        <v>0.5595889747604137</v>
+      </c>
+      <c r="K12">
+        <v>-0.3232951448600051</v>
+      </c>
+      <c r="L12">
+        <v>-0.2583238001534975</v>
+      </c>
+      <c r="M12">
+        <v>-0.3360749201190898</v>
+      </c>
+      <c r="N12">
+        <v>-0.3377619543180416</v>
+      </c>
+      <c r="O12">
+        <v>0.227064774617313</v>
+      </c>
+      <c r="P12">
+        <v>0.2898046823404806</v>
+      </c>
+      <c r="Q12">
+        <v>0.2541330667301958</v>
+      </c>
+      <c r="S12">
+        <v>0.3076720063556136</v>
+      </c>
+      <c r="T12">
+        <v>-0.3378784379934481</v>
+      </c>
+      <c r="U12">
+        <v>0.3601900573129279</v>
+      </c>
+      <c r="V12">
+        <v>0.3528733001763289</v>
+      </c>
+      <c r="W12">
+        <v>-0.3153818932141705</v>
+      </c>
+      <c r="X12">
+        <v>-0.3135033963322956</v>
+      </c>
+      <c r="Y12">
+        <v>0.3153818932141705</v>
+      </c>
+      <c r="Z12">
+        <v>0.3368401320271371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>0.1163562232803847</v>
+      </c>
+      <c r="D13">
+        <v>0.1163562232803847</v>
+      </c>
+      <c r="G13">
+        <v>0.1541822306041272</v>
+      </c>
+      <c r="H13">
+        <v>0.1019945972735225</v>
+      </c>
+      <c r="I13">
+        <v>0.09075366269668445</v>
+      </c>
+      <c r="J13">
+        <v>0.0374552673739355</v>
+      </c>
+      <c r="K13">
+        <v>0.2595333347723199</v>
+      </c>
+      <c r="L13">
+        <v>0.3725448348537868</v>
+      </c>
+      <c r="M13">
+        <v>0.240072827323307</v>
+      </c>
+      <c r="N13">
+        <v>0.2375726172828014</v>
+      </c>
+      <c r="O13">
+        <v>0.4349977296796465</v>
+      </c>
+      <c r="P13">
+        <v>0.314878835885615</v>
+      </c>
+      <c r="Q13">
+        <v>0.3806231867967792</v>
+      </c>
+      <c r="S13">
+        <v>0.2845714935852424</v>
+      </c>
+      <c r="T13">
+        <v>0.23740057835443</v>
+      </c>
+      <c r="U13">
+        <v>0.2058548038857869</v>
+      </c>
+      <c r="V13">
+        <v>0.2158916969203172</v>
+      </c>
+      <c r="W13">
+        <v>0.2720441086117176</v>
+      </c>
+      <c r="X13">
+        <v>0.2750656659320875</v>
+      </c>
+      <c r="Y13">
+        <v>0.2720441086117176</v>
+      </c>
+      <c r="Z13">
+        <v>0.2389367851998082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14">
+        <v>0.9900400074460726</v>
+      </c>
+      <c r="I14">
+        <v>0.9887016385161856</v>
+      </c>
+      <c r="J14">
+        <v>0.9527596413203765</v>
+      </c>
+      <c r="K14">
+        <v>-0.7579747738772188</v>
+      </c>
+      <c r="L14">
+        <v>-0.6970609292280884</v>
+      </c>
+      <c r="M14">
+        <v>-0.8265492225815707</v>
+      </c>
+      <c r="N14">
+        <v>-0.8334890425278304</v>
+      </c>
+      <c r="O14">
+        <v>0.2210045336068824</v>
+      </c>
+      <c r="P14">
+        <v>0.2908604850445409</v>
+      </c>
+      <c r="Q14">
+        <v>0.2430350106556114</v>
+      </c>
+      <c r="R14">
+        <v>0.2066637552545371</v>
+      </c>
+      <c r="S14">
+        <v>0.2074858779563415</v>
+      </c>
+      <c r="T14">
+        <v>-0.8274815823496725</v>
+      </c>
+      <c r="U14">
+        <v>0.8962011199212176</v>
+      </c>
+      <c r="V14">
+        <v>0.8737101267385184</v>
+      </c>
+      <c r="W14">
+        <v>-0.7907424767466654</v>
+      </c>
+      <c r="X14">
+        <v>-0.7854252184864612</v>
+      </c>
+      <c r="Y14">
+        <v>0.7907424767466654</v>
+      </c>
+      <c r="Z14">
+        <v>0.8411930948757823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>1.379617918281166e-11</v>
+      </c>
+      <c r="I15">
+        <v>2.931209029721876e-11</v>
+      </c>
+      <c r="J15">
+        <v>1.44875656280237e-07</v>
+      </c>
+      <c r="K15">
+        <v>0.001683056798935073</v>
+      </c>
+      <c r="L15">
+        <v>0.005593823474113573</v>
+      </c>
+      <c r="M15">
+        <v>0.0002675520041299246</v>
+      </c>
+      <c r="N15">
+        <v>0.0002127762999217585</v>
+      </c>
+      <c r="O15">
+        <v>0.4476788997047771</v>
+      </c>
+      <c r="P15">
+        <v>0.3130386629881419</v>
+      </c>
+      <c r="Q15">
+        <v>0.4024615416948492</v>
+      </c>
+      <c r="R15">
+        <v>0.4783980771058681</v>
+      </c>
+      <c r="S15">
+        <v>0.4766105121540214</v>
+      </c>
+      <c r="T15">
+        <v>0.0002595934690608697</v>
+      </c>
+      <c r="U15">
+        <v>1.438907226121298e-05</v>
+      </c>
+      <c r="V15">
+        <v>4.437853833331455e-05</v>
+      </c>
+      <c r="W15">
+        <v>0.0007593434966020119</v>
+      </c>
+      <c r="X15">
+        <v>0.0008718309892694466</v>
+      </c>
+      <c r="Y15">
+        <v>0.0007593434966020119</v>
+      </c>
+      <c r="Z15">
+        <v>0.0001629809150921373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16">
+        <v>-0.7692014377279285</v>
+      </c>
+      <c r="L16">
+        <v>-0.7132686856009104</v>
+      </c>
+      <c r="M16">
+        <v>-0.8497234271270033</v>
+      </c>
+      <c r="N16">
+        <v>-0.8542245817707288</v>
+      </c>
+      <c r="O16">
+        <v>0.158330794733668</v>
+      </c>
+      <c r="P16">
+        <v>0.2302426437384692</v>
+      </c>
+      <c r="Q16">
+        <v>0.1835901861445298</v>
+      </c>
+      <c r="R16">
+        <v>0.1133830777591237</v>
+      </c>
+      <c r="S16">
+        <v>0.1603590443991618</v>
+      </c>
+      <c r="T16">
+        <v>-0.8505556329730174</v>
+      </c>
+      <c r="U16">
+        <v>0.9135015846927297</v>
+      </c>
+      <c r="V16">
+        <v>0.8857238602328973</v>
+      </c>
+      <c r="W16">
+        <v>-0.8156070612161225</v>
+      </c>
+      <c r="X16">
+        <v>-0.8105117870840778</v>
+      </c>
+      <c r="Y16">
+        <v>0.8156070612161227</v>
+      </c>
+      <c r="Z16">
+        <v>0.8631241499292694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17">
+        <v>0.001299673363340171</v>
+      </c>
+      <c r="L17">
+        <v>0.004182593937469658</v>
+      </c>
+      <c r="M17">
+        <v>0.0001193204797940157</v>
+      </c>
+      <c r="N17">
+        <v>0.0001004426781084008</v>
+      </c>
+      <c r="O17">
+        <v>0.5887720726198273</v>
+      </c>
+      <c r="P17">
+        <v>0.4284208082015504</v>
+      </c>
+      <c r="Q17">
+        <v>0.5298316533550533</v>
+      </c>
+      <c r="R17">
+        <v>0.6995443169797915</v>
+      </c>
+      <c r="S17">
+        <v>0.5839440799341216</v>
+      </c>
+      <c r="T17">
+        <v>0.0001156290818321042</v>
+      </c>
+      <c r="U17">
+        <v>5.00780997816683e-06</v>
+      </c>
+      <c r="V17">
+        <v>2.502799840384972e-05</v>
+      </c>
+      <c r="W17">
+        <v>0.0003765928736037288</v>
+      </c>
+      <c r="X17">
+        <v>0.0004383150554388296</v>
+      </c>
+      <c r="Y17">
+        <v>0.0003765928736037264</v>
+      </c>
+      <c r="Z17">
+        <v>7.023254187544796e-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>-0.1242049557322479</v>
+      </c>
+      <c r="D18">
+        <v>-0.1242049557322479</v>
+      </c>
+      <c r="H18">
+        <v>0.997080753391703</v>
+      </c>
+      <c r="J18">
+        <v>0.9711423757882862</v>
+      </c>
+      <c r="K18">
+        <v>-0.7327187396922558</v>
+      </c>
+      <c r="L18">
+        <v>-0.6726188601334888</v>
+      </c>
+      <c r="M18">
+        <v>-0.8133771545928516</v>
+      </c>
+      <c r="N18">
+        <v>-0.8178029136666354</v>
+      </c>
+      <c r="O18">
+        <v>0.1851506370576698</v>
+      </c>
+      <c r="P18">
+        <v>0.264237067744491</v>
+      </c>
+      <c r="Q18">
+        <v>0.2171202107718097</v>
+      </c>
+      <c r="R18">
+        <v>0.1470585870711922</v>
+      </c>
+      <c r="S18">
+        <v>0.1893960755596029</v>
+      </c>
+      <c r="T18">
+        <v>-0.8143489582862197</v>
+      </c>
+      <c r="U18">
+        <v>0.8814336208054112</v>
+      </c>
+      <c r="V18">
+        <v>0.8493734858035541</v>
+      </c>
+      <c r="W18">
+        <v>-0.7788161759343618</v>
+      </c>
+      <c r="X18">
+        <v>-0.7734720684387129</v>
+      </c>
+      <c r="Y18">
+        <v>0.7788161759343617</v>
+      </c>
+      <c r="Z18">
+        <v>0.8278992759072727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>0.6722598967440689</v>
+      </c>
+      <c r="D19">
+        <v>0.6722598967440689</v>
+      </c>
+      <c r="H19">
+        <v>8.8797022337643e-15</v>
+      </c>
+      <c r="J19">
+        <v>7.83513361438573e-09</v>
+      </c>
+      <c r="K19">
+        <v>0.002875242272167375</v>
+      </c>
+      <c r="L19">
+        <v>0.008394826808329422</v>
+      </c>
+      <c r="M19">
+        <v>0.0004026788316040523</v>
+      </c>
+      <c r="N19">
+        <v>0.0003522534060924417</v>
+      </c>
+      <c r="O19">
+        <v>0.5262782405756327</v>
+      </c>
+      <c r="P19">
+        <v>0.3613046282257141</v>
+      </c>
+      <c r="Q19">
+        <v>0.4559016717848373</v>
+      </c>
+      <c r="R19">
+        <v>0.6158898635077281</v>
+      </c>
+      <c r="S19">
+        <v>0.5166645636521494</v>
+      </c>
+      <c r="T19">
+        <v>0.0003911372687335602</v>
+      </c>
+      <c r="U19">
+        <v>3.092284350107059e-05</v>
+      </c>
+      <c r="V19">
+        <v>0.0001209010066509577</v>
+      </c>
+      <c r="W19">
+        <v>0.001029822375065989</v>
+      </c>
+      <c r="X19">
+        <v>0.00117361827518423</v>
+      </c>
+      <c r="Y19">
+        <v>0.001029822375065993</v>
+      </c>
+      <c r="Z19">
+        <v>0.0002560906888875645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>-0.2042031188959711</v>
+      </c>
+      <c r="D20">
+        <v>-0.2042031188959711</v>
+      </c>
+      <c r="H20">
+        <v>0.9563756159994901</v>
+      </c>
+      <c r="K20">
+        <v>-0.648929758705745</v>
+      </c>
+      <c r="L20">
+        <v>-0.5823758354934632</v>
+      </c>
+      <c r="M20">
+        <v>-0.7170204709435427</v>
+      </c>
+      <c r="N20">
+        <v>-0.7234459106771386</v>
+      </c>
+      <c r="O20">
+        <v>0.3208490133453035</v>
+      </c>
+      <c r="P20">
+        <v>0.4261439793612088</v>
+      </c>
+      <c r="Q20">
+        <v>0.3777306703461648</v>
+      </c>
+      <c r="R20">
+        <v>0.2744609569508897</v>
+      </c>
+      <c r="S20">
+        <v>0.3507361723282832</v>
+      </c>
+      <c r="T20">
+        <v>-0.7187593300249525</v>
+      </c>
+      <c r="U20">
+        <v>0.790846387831733</v>
+      </c>
+      <c r="V20">
+        <v>0.7601004590744659</v>
+      </c>
+      <c r="W20">
+        <v>-0.6814595099985525</v>
+      </c>
+      <c r="X20">
+        <v>-0.6758570378328876</v>
+      </c>
+      <c r="Y20">
+        <v>0.6814595099985525</v>
+      </c>
+      <c r="Z20">
+        <v>0.7324188318779625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>0.4837672521255839</v>
+      </c>
+      <c r="D21">
+        <v>0.4837672521255839</v>
+      </c>
+      <c r="H21">
+        <v>9.055621918934546e-08</v>
+      </c>
+      <c r="K21">
+        <v>0.01204215404464266</v>
+      </c>
+      <c r="L21">
+        <v>0.02886889549479645</v>
+      </c>
+      <c r="M21">
+        <v>0.003899848360899021</v>
+      </c>
+      <c r="N21">
+        <v>0.00345065636963277</v>
+      </c>
+      <c r="O21">
+        <v>0.263363047999262</v>
+      </c>
+      <c r="P21">
+        <v>0.1286712063320331</v>
+      </c>
+      <c r="Q21">
+        <v>0.1830097390826312</v>
+      </c>
+      <c r="R21">
+        <v>0.342313231875402</v>
+      </c>
+      <c r="S21">
+        <v>0.2188799885680209</v>
+      </c>
+      <c r="T21">
+        <v>0.003774003369419702</v>
+      </c>
+      <c r="U21">
+        <v>0.0007572673879262116</v>
+      </c>
+      <c r="V21">
+        <v>0.001604328086091422</v>
+      </c>
+      <c r="W21">
+        <v>0.007279008902395804</v>
+      </c>
+      <c r="X21">
+        <v>0.007971766748000965</v>
+      </c>
+      <c r="Y21">
+        <v>0.007279008902395804</v>
+      </c>
+      <c r="Z21">
+        <v>0.002892580082644113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22">
+        <v>0.9415017919098839</v>
+      </c>
+      <c r="V22">
+        <v>-0.8521329772862705</v>
+      </c>
+      <c r="W22">
+        <v>0.9580995568653089</v>
+      </c>
+      <c r="X22">
+        <v>0.9580957283953599</v>
+      </c>
+      <c r="Y22">
+        <v>-0.9580995568653088</v>
+      </c>
+      <c r="Z22">
+        <v>-0.9526696550889852</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23">
+        <v>5.096513633431957e-07</v>
+      </c>
+      <c r="V23">
+        <v>0.0001088869641070233</v>
+      </c>
+      <c r="W23">
+        <v>7.136509266977907e-08</v>
+      </c>
+      <c r="X23">
+        <v>7.140363007945637e-08</v>
+      </c>
+      <c r="Y23">
+        <v>7.136509266978023e-08</v>
+      </c>
+      <c r="Z23">
+        <v>1.465105804277727e-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V24">
+        <v>-0.8193277141971297</v>
+      </c>
+      <c r="W24">
+        <v>0.9669169600719639</v>
+      </c>
+      <c r="X24">
+        <v>0.9681345154491435</v>
+      </c>
+      <c r="Y24">
+        <v>-0.9669169600719638</v>
+      </c>
+      <c r="Z24">
+        <v>-0.9487446035334897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V25">
+        <v>0.0003361108669271336</v>
+      </c>
+      <c r="W25">
+        <v>1.762522883596209e-08</v>
+      </c>
+      <c r="X25">
+        <v>1.411150006351696e-08</v>
+      </c>
+      <c r="Y25">
+        <v>1.762522883596243e-08</v>
+      </c>
+      <c r="Z25">
+        <v>2.342846554303714e-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26">
+        <v>0.9539405844915088</v>
+      </c>
+      <c r="L26">
+        <v>0.9553851334388896</v>
+      </c>
+      <c r="V26">
+        <v>-0.9225196964970571</v>
+      </c>
+      <c r="W26">
+        <v>0.9960923146492449</v>
+      </c>
+      <c r="X26">
+        <v>0.9952970356228034</v>
+      </c>
+      <c r="Y26">
+        <v>-0.9960923146492449</v>
+      </c>
+      <c r="Z26">
+        <v>-0.9994978623295543</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27">
+        <v>1.247803845403323e-07</v>
+      </c>
+      <c r="L27">
+        <v>1.033908329841542e-07</v>
+      </c>
+      <c r="V27">
+        <v>2.638866164941363e-06</v>
+      </c>
+      <c r="W27">
+        <v>5.097651138375961e-14</v>
+      </c>
+      <c r="X27">
+        <v>1.546469503797168e-13</v>
+      </c>
+      <c r="Y27">
+        <v>5.097651138375961e-14</v>
+      </c>
+      <c r="Z27">
+        <v>2.311859659369638e-19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28">
+        <v>0.9569632331342226</v>
+      </c>
+      <c r="L28">
+        <v>0.9537848922297503</v>
+      </c>
+      <c r="M28">
+        <v>0.9994966080389235</v>
+      </c>
+      <c r="V28">
+        <v>-0.9299029511646537</v>
+      </c>
+      <c r="W28">
+        <v>0.993913791449678</v>
+      </c>
+      <c r="X28">
+        <v>0.9929590692396059</v>
+      </c>
+      <c r="Y28">
+        <v>-0.993913791449678</v>
+      </c>
+      <c r="Z28">
+        <v>-0.9994847962347773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29">
+        <v>8.358658155459888e-08</v>
+      </c>
+      <c r="L29">
+        <v>1.272893431860289e-07</v>
+      </c>
+      <c r="M29">
+        <v>2.346719237408134e-19</v>
+      </c>
+      <c r="V29">
+        <v>1.470764865597001e-06</v>
+      </c>
+      <c r="W29">
+        <v>7.242728089465888e-13</v>
+      </c>
+      <c r="X29">
+        <v>1.732650040157731e-12</v>
+      </c>
+      <c r="Y29">
+        <v>7.242728089465888e-13</v>
+      </c>
+      <c r="Z29">
+        <v>2.697035443241782e-19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30">
+        <v>0.1403589977327581</v>
+      </c>
+      <c r="L30">
+        <v>0.1770532006988338</v>
+      </c>
+      <c r="M30">
+        <v>0.1299673008200312</v>
+      </c>
+      <c r="N30">
+        <v>0.1112811025397742</v>
+      </c>
+      <c r="P30">
+        <v>0.9678744299913176</v>
+      </c>
+      <c r="S30">
+        <v>0.9558563959118441</v>
+      </c>
+      <c r="T30">
+        <v>0.1269277770883171</v>
+      </c>
+      <c r="W30">
+        <v>0.1781733827468908</v>
+      </c>
+      <c r="X30">
+        <v>0.1837790966622686</v>
+      </c>
+      <c r="Y30">
+        <v>-0.1781733827468908</v>
+      </c>
+      <c r="Z30">
+        <v>-0.1133586701713421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31">
+        <v>0.6322286305410247</v>
+      </c>
+      <c r="L31">
+        <v>0.5448314059635686</v>
+      </c>
+      <c r="M31">
+        <v>0.657880862233994</v>
+      </c>
+      <c r="N31">
+        <v>0.7048843638216833</v>
+      </c>
+      <c r="P31">
+        <v>1.480846198551263e-08</v>
+      </c>
+      <c r="S31">
+        <v>9.71085583832364e-08</v>
+      </c>
+      <c r="T31">
+        <v>0.6654521869524465</v>
+      </c>
+      <c r="W31">
+        <v>0.5422481013993823</v>
+      </c>
+      <c r="X31">
+        <v>0.5294009092885569</v>
+      </c>
+      <c r="Y31">
+        <v>0.5422481013993823</v>
+      </c>
+      <c r="Z31">
+        <v>0.6996062507299772</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32">
+        <v>0.1229269487283251</v>
+      </c>
+      <c r="S32">
+        <v>0.964481051309561</v>
+      </c>
+      <c r="W32">
+        <v>0.1132970987703842</v>
+      </c>
+      <c r="X32">
+        <v>0.118570913222558</v>
+      </c>
+      <c r="Y32">
+        <v>-0.1132970987703842</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33">
+        <v>0.6754633271595099</v>
+      </c>
+      <c r="S33">
+        <v>2.685128581372949e-08</v>
+      </c>
+      <c r="W33">
+        <v>0.6997624946011949</v>
+      </c>
+      <c r="X33">
+        <v>0.6864202297287221</v>
+      </c>
+      <c r="Y33">
+        <v>0.6997624946011949</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34">
+        <v>0.1390088024608891</v>
+      </c>
+      <c r="L34">
+        <v>0.1879897431435046</v>
+      </c>
+      <c r="M34">
+        <v>0.1331459029748885</v>
+      </c>
+      <c r="N34">
+        <v>0.1160826955945883</v>
+      </c>
+      <c r="O34">
+        <v>0.9715484421267971</v>
+      </c>
+      <c r="P34">
+        <v>0.9909645760496746</v>
+      </c>
+      <c r="R34">
+        <v>0.7072072958125952</v>
+      </c>
+      <c r="S34">
+        <v>0.9651271130791758</v>
+      </c>
+      <c r="T34">
+        <v>0.1291671873010913</v>
+      </c>
+      <c r="W34">
+        <v>0.1775484673379499</v>
+      </c>
+      <c r="X34">
+        <v>0.1830901517278855</v>
+      </c>
+      <c r="Y34">
+        <v>-0.1775484673379499</v>
+      </c>
+      <c r="Z34">
+        <v>-0.1159327119282034</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35">
+        <v>0.6355407186914992</v>
+      </c>
+      <c r="L35">
+        <v>0.5198403824423221</v>
+      </c>
+      <c r="M35">
+        <v>0.6499955871530773</v>
+      </c>
+      <c r="N35">
+        <v>0.6927048841591884</v>
+      </c>
+      <c r="O35">
+        <v>7.202801834553823e-09</v>
+      </c>
+      <c r="P35">
+        <v>7.704768709909619e-12</v>
+      </c>
+      <c r="R35">
+        <v>0.004673107787330013</v>
+      </c>
+      <c r="S35">
+        <v>2.40847164999085e-08</v>
+      </c>
+      <c r="T35">
+        <v>0.659870991816409</v>
+      </c>
+      <c r="W35">
+        <v>0.5436885938002094</v>
+      </c>
+      <c r="X35">
+        <v>0.5309725522006021</v>
+      </c>
+      <c r="Y35">
+        <v>0.5436885938002094</v>
+      </c>
+      <c r="Z35">
+        <v>0.6930843001192346</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K36">
+        <v>0.1489254771268234</v>
+      </c>
+      <c r="L36">
+        <v>0.1887879266491192</v>
+      </c>
+      <c r="M36">
+        <v>0.1947266320764763</v>
+      </c>
+      <c r="N36">
+        <v>0.1723609206013055</v>
+      </c>
+      <c r="O36">
+        <v>0.6690054822386823</v>
+      </c>
+      <c r="P36">
+        <v>0.7078880931222683</v>
+      </c>
+      <c r="S36">
+        <v>0.6875786225510613</v>
+      </c>
+      <c r="T36">
+        <v>0.1920840516757537</v>
+      </c>
+      <c r="W36">
+        <v>0.2295306268274472</v>
+      </c>
+      <c r="X36">
+        <v>0.2342734241164719</v>
+      </c>
+      <c r="Y36">
+        <v>-0.2295306268274472</v>
+      </c>
+      <c r="Z36">
+        <v>-0.1763731015203238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37">
+        <v>0.6113658475052088</v>
+      </c>
+      <c r="L37">
+        <v>0.5180368298435025</v>
+      </c>
+      <c r="M37">
+        <v>0.5047068796431293</v>
+      </c>
+      <c r="N37">
+        <v>0.5557097469282</v>
+      </c>
+      <c r="O37">
+        <v>0.008887192145596207</v>
+      </c>
+      <c r="P37">
+        <v>0.00461587409801793</v>
+      </c>
+      <c r="S37">
+        <v>0.006576738884694055</v>
+      </c>
+      <c r="T37">
+        <v>0.5106189169913885</v>
+      </c>
+      <c r="W37">
+        <v>0.4298900126576839</v>
+      </c>
+      <c r="X37">
+        <v>0.4201515717749895</v>
+      </c>
+      <c r="Y37">
+        <v>0.4298900126576839</v>
+      </c>
+      <c r="Z37">
+        <v>0.5464023994411865</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38">
+        <v>0.136102540147532</v>
+      </c>
+      <c r="L38">
+        <v>0.1189409341705758</v>
+      </c>
+      <c r="M38">
+        <v>0.1056678127712799</v>
+      </c>
+      <c r="T38">
+        <v>0.1018074548697721</v>
+      </c>
+      <c r="W38">
+        <v>0.1446613210327239</v>
+      </c>
+      <c r="X38">
+        <v>0.14924640993019</v>
+      </c>
+      <c r="Y38">
+        <v>-0.1446613210327239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39">
+        <v>0.6426913669452254</v>
+      </c>
+      <c r="L39">
+        <v>0.6854872389499913</v>
+      </c>
+      <c r="M39">
+        <v>0.7192063388997185</v>
+      </c>
+      <c r="T39">
+        <v>0.7291060702650727</v>
+      </c>
+      <c r="W39">
+        <v>0.6217177589777263</v>
+      </c>
+      <c r="X39">
+        <v>0.6105894244668719</v>
+      </c>
+      <c r="Y39">
+        <v>0.6217177589777263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40">
+        <v>0.9542967175864606</v>
+      </c>
+      <c r="L40">
+        <v>0.9549876767515023</v>
+      </c>
+      <c r="M40">
+        <v>0.9999607870239029</v>
+      </c>
+      <c r="N40">
+        <v>0.9994513489363502</v>
+      </c>
+      <c r="V40">
+        <v>-0.9226294792673686</v>
+      </c>
+      <c r="W40">
+        <v>0.996066542624973</v>
+      </c>
+      <c r="X40">
+        <v>0.9952647694045313</v>
+      </c>
+      <c r="Y40">
+        <v>-0.9960665426249731</v>
+      </c>
+      <c r="Z40">
+        <v>-0.9995133231811522</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41">
+        <v>1.191948893787948e-07</v>
+      </c>
+      <c r="L41">
+        <v>1.089473121896609e-07</v>
+      </c>
+      <c r="M41">
+        <v>5.248489491615509e-26</v>
+      </c>
+      <c r="N41">
+        <v>3.933314774424095e-19</v>
+      </c>
+      <c r="V41">
+        <v>2.617146069607221e-06</v>
+      </c>
+      <c r="W41">
+        <v>5.302433842733143e-14</v>
+      </c>
+      <c r="X41">
+        <v>1.611120188652761e-13</v>
+      </c>
+      <c r="Y41">
+        <v>5.30243384273225e-14</v>
+      </c>
+      <c r="Z41">
+        <v>1.916386051589327e-19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42">
+        <v>-0.9247300345547229</v>
+      </c>
+      <c r="L42">
+        <v>-0.9025182767537194</v>
+      </c>
+      <c r="M42">
+        <v>-0.9832020392413465</v>
+      </c>
+      <c r="N42">
+        <v>-0.9862481601830008</v>
+      </c>
+      <c r="T42">
+        <v>-0.9832799576535227</v>
+      </c>
+      <c r="V42">
+        <v>0.9698147455554046</v>
+      </c>
+      <c r="W42">
+        <v>-0.9642327164983301</v>
+      </c>
+      <c r="X42">
+        <v>-0.9617525898602283</v>
+      </c>
+      <c r="Y42">
+        <v>0.9642327164983299</v>
+      </c>
+      <c r="Z42">
+        <v>0.9875805366564573</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K43">
+        <v>2.229051722666343e-06</v>
+      </c>
+      <c r="L43">
+        <v>1.001233798710696e-05</v>
+      </c>
+      <c r="M43">
+        <v>3.128577296459766e-10</v>
+      </c>
+      <c r="N43">
+        <v>9.480347574269442e-11</v>
+      </c>
+      <c r="T43">
+        <v>3.043019579634644e-10</v>
+      </c>
+      <c r="V43">
+        <v>1.023297712475673e-08</v>
+      </c>
+      <c r="W43">
+        <v>2.798245597441725e-08</v>
+      </c>
+      <c r="X43">
+        <v>4.161407249124321e-08</v>
+      </c>
+      <c r="Y43">
+        <v>2.798245597441829e-08</v>
+      </c>
+      <c r="Z43">
+        <v>5.15849202651962e-11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y44">
+        <v>0.8862913695275447</v>
+      </c>
+      <c r="Z44">
+        <v>0.9290232701705354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y45">
+        <v>2.432237933537931e-05</v>
+      </c>
+      <c r="Z45">
+        <v>1.581972246049064e-06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V46">
+        <v>-0.8862913695275447</v>
+      </c>
+      <c r="Y46">
+        <v>-0.9999999999999999</v>
+      </c>
+      <c r="Z46">
+        <v>-0.9938999281243162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V47">
+        <v>2.432237933537931e-05</v>
+      </c>
+      <c r="Y47">
+        <v>2.703668094834745e-95</v>
+      </c>
+      <c r="Z47">
+        <v>7.342060904256847e-13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V48">
+        <v>-0.8826030829806407</v>
+      </c>
+      <c r="W48">
+        <v>0.9999548427018297</v>
+      </c>
+      <c r="Y48">
+        <v>-0.9999548427018295</v>
+      </c>
+      <c r="Z48">
+        <v>-0.9928446360396092</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V49">
+        <v>2.921400454209654e-05</v>
+      </c>
+      <c r="W49">
+        <v>1.224102174096219e-25</v>
+      </c>
+      <c r="Y49">
+        <v>1.224102174114275e-25</v>
+      </c>
+      <c r="Z49">
+        <v>1.908156513942157e-12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y50">
+        <v>0.9938999281243162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y51">
+        <v>7.342060904256847e-13</v>
       </c>
     </row>
   </sheetData>
